--- a/数据整理/stocks/A股/上证主板/601928-凤凰传媒.xlsx
+++ b/数据整理/stocks/A股/上证主板/601928-凤凰传媒.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>260112</t>
+          <t>000979</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>景顺长城能源基建混合</t>
+          <t>景顺长城沪港深精选股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>63.93</t>
+          <t>27.02</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7.37</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
+          <t>82.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4267</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000979</t>
+          <t>009098</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城沪港深精选股票</t>
+          <t>景顺长城价值领航两年持有期混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>82.45</t>
+          <t>21.73</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.28</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>70.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1712</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>121001</t>
+          <t>008850</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国投瑞银融华债券</t>
+          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>29.15</t>
+          <t>16.59</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>64.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8975</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009608</t>
+          <t>008060</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发中证500指数增强A</t>
+          <t>景顺长城价值边际灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.21</t>
+          <t>13.75</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>63.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7934</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009609</t>
+          <t>260112</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发中证500指数增强C</t>
+          <t>景顺长城能源基建混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.21</t>
+          <t>8.75</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
+          <t>63.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6449</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -642,15 +702,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>83.37</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1.75</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0950</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>10</v>
       </c>
     </row>
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009775</t>
+          <t>009608</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>汇丰晋信中小盘低波动策略股票C</t>
+          <t>广发中证500指数增强A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>83.37</t>
+          <t>3.63</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>008060</t>
+          <t>121001</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>景顺长城价值边际灵活配置混合</t>
+          <t>国投瑞银融华债券</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>63.61</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5.77</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>3</v>
+          <t>29.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>008850</t>
+          <t>009609</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
+          <t>广发中证500指数增强C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>64.30</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5.41</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>4</v>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>009098</t>
+          <t>009775</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>景顺长城价值领航两年持有期混合</t>
+          <t>汇丰晋信中小盘低波动策略股票C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>70.46</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>4</v>
+          <t>83.37</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -777,7 +887,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -798,15 +908,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -828,15 +948,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>24.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>83.92</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>6.24</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5251</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -846,26 +976,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008060</t>
+          <t>009098</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城价值边际灵活配置混合</t>
+          <t>景顺长城价值领航两年持有期混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>77.74</t>
+          <t>22.94</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>8.39</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
+          <t>69.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3190</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -884,15 +1024,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>17.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>70.29</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>5.76</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9988</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -902,26 +1052,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>260112</t>
+          <t>008060</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>景顺长城能源基建混合</t>
+          <t>景顺长城价值边际灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>60.41</t>
+          <t>9.93</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>7.80</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
+          <t>77.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8331</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005392</t>
+          <t>260112</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>长信价值蓝筹两年定期开放灵活配置混合A</t>
+          <t>景顺长城能源基建混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>85.96</t>
+          <t>7.80</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>60.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6084</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009911</t>
+          <t>003956</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>长信价值蓝筹两年定期开放灵活配置混合C</t>
+          <t>南方现代教育股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>85.96</t>
+          <t>7.86</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3584</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009098</t>
+          <t>005392</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>景顺长城价值领航两年持有期混合</t>
+          <t>长信价值蓝筹两年定期开放灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>69.93</t>
+          <t>5.46</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.75</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>4</v>
+          <t>85.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2364</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>003956</t>
+          <t>009911</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>南方现代教育股票</t>
+          <t>长信价值蓝筹两年定期开放灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>92.29</t>
+          <t>5.27</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.56</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>3</v>
+          <t>85.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2282</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1052,15 +1252,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>91.77</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>2.20</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0777</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1080,15 +1290,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>91.77</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>2.20</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>8</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601928-凤凰传媒.xlsx
+++ b/数据整理/stocks/A股/上证主板/601928-凤凰传媒.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1315,4 +1316,744 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000979</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.94</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6379</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009098</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城价值领航两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>66.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4153</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008850</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>65.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0723</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008060</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7631</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>260112</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>62.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7179</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005392</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4294</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009911</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4146</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007994</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>19.31</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2993</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006682</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1152</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007995</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0882</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002076</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009658</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010307</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007386</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010308</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004790</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009775</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004791</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601928-凤凰传媒.xlsx
+++ b/数据整理/stocks/A股/上证主板/601928-凤凰传媒.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2056,4 +2057,516 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000979</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6572</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009098</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城价值领航两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>61.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4326</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008850</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.66</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>60.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0843</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>260112</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>61.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8325</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008715</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城价值驱动一年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>45.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7482</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008060</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>75.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6126</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007994</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>32.97</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3857</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005392</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2029</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009911</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1960</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003956</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方现代教育股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1901</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007995</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0987</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001050</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0773</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601928-凤凰传媒.xlsx
+++ b/数据整理/stocks/A股/上证主板/601928-凤凰传媒.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2569,4 +2570,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601928-凤凰传媒.xlsx
+++ b/数据整理/stocks/A股/上证主板/601928-凤凰传媒.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2578,7 +2579,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2589,17 +2590,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2609,14 +2630,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.52</v>
+          <t>000979</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1766</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2625,14 +2668,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>18</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.11</v>
+          <t>009098</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城价值领航两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>61.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6041</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2641,14 +2706,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.19</v>
+          <t>008850</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>59.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2153</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -2657,13 +2744,379 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>260112</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>60.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0008</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008715</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城价值驱动一年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>50.23</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8576</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008060</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>74.95</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>10.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5904</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007994</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1090</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007995</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0982</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515510</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实中证500成长估值ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.54</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001849</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源强势共识100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.66</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.52</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>10</v>
       </c>
       <c r="D5" t="n">
+        <v>6.19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
         <v>5.12</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601928-凤凰传媒.xlsx
+++ b/数据整理/stocks/A股/上证主板/601928-凤凰传媒.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3015,7 +3016,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3026,17 +3027,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3046,14 +3067,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.66</v>
+          <t>000979</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5127</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -3062,14 +3105,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.52</v>
+          <t>260112</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>60.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3423</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -3078,14 +3143,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>18</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.11</v>
+          <t>009098</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城价值领航两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>75.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1460</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -3094,14 +3181,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>10</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6.19</v>
+          <t>008850</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>69.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1430</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -3110,13 +3219,623 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>008715</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城价值驱动一年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>62.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8062</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013233</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏中证500指数智选增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>39.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5330</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008060</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4753</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007994</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>31.45</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4466</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012708</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1048</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007995</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013234</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏中证500指数智选增强C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501219</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏智胜先锋股票（LOF）A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012709</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014198</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏智胜先锋股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>590007</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008124</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006992</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉合锦创优势精选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>74.79</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.52</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>18</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>10</v>
       </c>
       <c r="D6" t="n">
+        <v>6.19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="n">
         <v>5.12</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601928-凤凰传媒.xlsx
+++ b/数据整理/stocks/A股/上证主板/601928-凤凰传媒.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3718,7 +3719,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3729,17 +3730,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3749,14 +3770,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.75</v>
+          <t>260112</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>61.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4234</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -3765,14 +3808,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.66</v>
+          <t>000979</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4220</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -3781,14 +3846,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.52</v>
+          <t>008850</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0733</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -3797,14 +3884,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>18</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.11</v>
+          <t>009098</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城价值领航两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8266</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -3813,14 +3922,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>10</v>
-      </c>
-      <c r="D6" t="n">
-        <v>6.19</v>
+          <t>008715</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城价值驱动一年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>64.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7566</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -3829,13 +3960,259 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>008060</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4297</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012708</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0699</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012709</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.52</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>18</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>10</v>
       </c>
       <c r="D7" t="n">
+        <v>6.19</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" t="n">
         <v>5.12</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601928-凤凰传媒.xlsx
+++ b/数据整理/stocks/A股/上证主板/601928-凤凰传媒.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="D2" t="n">
-        <v>6.02</v>
+        <v>8.41</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>7.75</v>
+        <v>6.02</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>7.66</v>
+        <v>7.75</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>7.52</v>
+        <v>7.66</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>7.11</v>
+        <v>7.52</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D7" t="n">
-        <v>6.19</v>
+        <v>7.11</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>10</v>
       </c>
       <c r="D8" t="n">
+        <v>6.19</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>10</v>
+      </c>
+      <c r="D9" t="n">
         <v>5.12</v>
       </c>
     </row>
@@ -600,6 +617,1542 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>260112</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>61.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6887</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000979</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6276</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008850</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2743</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008715</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城价值驱动一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8280</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009098</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城价值领航两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7017</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008060</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4338</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161611</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合A/B</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3950</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>502000</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.77</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3039</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014109</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1839</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501059</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1095</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009874</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1030</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009439</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0918</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009300</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002252</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>融通成长30灵活配置混合A/B</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0730</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012708</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>015779</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>80.34</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0629</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014106</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>融通成长30灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>512890</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008134</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华优选价值股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012879</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中信建投量化精选6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007499</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012878</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中信建投量化精选6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014344</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010120</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001897</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009043</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>九泰久信量化股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012709</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>014345</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002305</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004510</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>080015</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长盛中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>84.41</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005260</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006157</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>财通量化核心优选混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>83.87</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004546</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>建信量化优享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>25.68</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010121</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006957</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长江量化匠心甄选股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006911</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长江量化匠心甄选股票A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005261</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>016399</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -959,7 +2512,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1661,7 +3214,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2097,7 +3650,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2609,7 +4162,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3349,7 +4902,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3785,7 +5338,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601928-凤凰传媒.xlsx
+++ b/数据整理/stocks/A股/上证主板/601928-凤凰传媒.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>8.41</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="D3" t="n">
-        <v>6.02</v>
+        <v>8.41</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>7.75</v>
+        <v>6.02</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>7.66</v>
+        <v>7.75</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>7.52</v>
+        <v>7.66</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>7.11</v>
+        <v>7.52</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D8" t="n">
-        <v>6.19</v>
+        <v>7.11</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>10</v>
       </c>
       <c r="D9" t="n">
+        <v>6.19</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>10</v>
+      </c>
+      <c r="D10" t="n">
         <v>5.12</v>
       </c>
     </row>
@@ -616,7 +633,1145 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000979</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4267</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009098</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城价值领航两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>70.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1712</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008850</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>64.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8975</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008060</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>63.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7934</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>260112</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>63.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6449</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009658</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.37</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0950</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009608</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>121001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银融华债券</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>29.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009609</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009775</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.37</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000979</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0883</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008850</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5489</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>260112</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.88</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5101</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009098</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城价值领航两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5898</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008715</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城价值驱动一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5609</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008060</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5271</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161611</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合A/B</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4770</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015779</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1970</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014109</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1866</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001319</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>农银汇理信息传媒主题股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.93</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1513</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014106</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>融通成长30灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1060</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002252</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>融通成长30灵活配置混合A/B</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0799</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>017090</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.17</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0660</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>080015</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长盛中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.17</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005650</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家量化同顺多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001849</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>前海开源强势共识100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>71.91</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005651</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>万家量化同顺多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2152,7 +3307,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2512,7 +3667,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3214,7 +4369,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3650,7 +4805,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4162,7 +5317,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4902,7 +6057,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5336,440 +6491,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000979</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>景顺长城沪港深精选股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>27.02</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>82.45</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.28</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.4267</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009098</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>景顺长城价值领航两年持有期混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>21.73</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>70.46</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.1712</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>008850</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>16.59</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>64.30</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.41</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.8975</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>008060</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>景顺长城价值边际灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>13.75</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>63.61</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.77</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.7934</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>260112</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>景顺长城能源基建混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>8.75</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>63.93</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7.37</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.6449</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009658</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>汇丰晋信中小盘低波动策略股票A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5.43</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>83.37</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0950</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009608</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>广发中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.21</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0653</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>121001</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>国投瑞银融华债券</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>29.15</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0202</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>009609</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>广发中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.21</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0061</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009775</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>汇丰晋信中小盘低波动策略股票C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>83.37</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0023</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>